--- a/doc/0609外部設計書.xlsx
+++ b/doc/0609外部設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5FF4DB-EA78-4340-92E3-941886C7CD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDACACA-7C03-47DE-A2AF-7544E728F00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイページ" sheetId="22" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="250">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1991,6 +1991,10 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2436,24 +2440,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2507,6 +2493,24 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3025,6 +3029,100 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>267557</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>32107</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434DBEEB-60A0-5253-3329-4D04A248A5FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8615310" y="2151152"/>
+          <a:ext cx="1434100" cy="449494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>顔写真のサイズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>327*277</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5724,8 +5822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674B55F7-4AFA-4E86-9D4E-AAB6178E3E93}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AI36" sqref="AI36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5734,154 +5832,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="31" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="27">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45">
         <v>44720</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="28" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -10357,23 +10455,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="52" t="s">
         <v>33</v>
       </c>
@@ -10398,20 +10496,20 @@
       <c r="AC1" s="52"/>
       <c r="AD1" s="52"/>
       <c r="AE1" s="52"/>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -10420,12 +10518,12 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="56" t="s">
         <v>35</v>
       </c>
@@ -10463,21 +10561,21 @@
       <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="53"/>
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
@@ -15047,7 +15145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
@@ -15057,23 +15155,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="52" t="s">
         <v>33</v>
       </c>
@@ -15098,20 +15196,20 @@
       <c r="AC1" s="52"/>
       <c r="AD1" s="52"/>
       <c r="AE1" s="52"/>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -15120,12 +15218,12 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="56" t="s">
         <v>35</v>
       </c>
@@ -15163,21 +15261,21 @@
       <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="53"/>
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
@@ -19748,152 +19846,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="31" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="26"/>
+      <c r="X2" s="44"/>
       <c r="Y2" s="50">
         <v>44719</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="28" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -24373,152 +24471,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="31" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="26"/>
+      <c r="X2" s="44"/>
       <c r="Y2" s="50">
         <v>44720</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="28" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -29049,152 +29147,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="31" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="26"/>
+      <c r="X2" s="44"/>
       <c r="Y2" s="50">
         <v>44720</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="28" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33631,152 +33729,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="31" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="26"/>
+      <c r="X2" s="44"/>
       <c r="Y2" s="50">
         <v>44720</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="28" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -38232,8 +38330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345B16C5-76BB-48B7-A8A3-CA8D205E7453}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="X82" sqref="X82"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH19:AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38244,23 +38342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="52" t="s">
         <v>33</v>
       </c>
@@ -38285,20 +38383,20 @@
       <c r="AC1" s="52"/>
       <c r="AD1" s="52"/>
       <c r="AE1" s="52"/>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -38307,12 +38405,12 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="56" t="s">
         <v>35</v>
       </c>
@@ -38350,21 +38448,21 @@
       <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="53"/>
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
@@ -41717,7 +41815,9 @@
       <c r="W82" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="X82" s="17"/>
+      <c r="X82" s="17" t="s">
+        <v>249</v>
+      </c>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
@@ -42951,152 +43051,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="31" t="s">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="26"/>
+      <c r="X2" s="44"/>
       <c r="Y2" s="50">
         <v>44719</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="28" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -47515,23 +47615,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="52" t="s">
         <v>33</v>
       </c>
@@ -47556,20 +47656,20 @@
       <c r="AC1" s="52"/>
       <c r="AD1" s="52"/>
       <c r="AE1" s="52"/>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -47578,12 +47678,12 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="56" t="s">
         <v>35</v>
       </c>
@@ -47621,21 +47721,21 @@
       <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="53"/>
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
@@ -52185,23 +52285,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="52" t="s">
         <v>33</v>
       </c>
@@ -52226,20 +52326,20 @@
       <c r="AC1" s="52"/>
       <c r="AD1" s="52"/>
       <c r="AE1" s="52"/>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="43"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -52248,12 +52348,12 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="26" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="56" t="s">
         <v>35</v>
       </c>
@@ -52291,21 +52391,21 @@
       <c r="AN2" s="60"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="42" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="53"/>
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>

--- a/doc/0609外部設計書.xlsx
+++ b/doc/0609外部設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDACACA-7C03-47DE-A2AF-7544E728F00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D3E74-2C24-47E0-993D-912B64B830F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイページ" sheetId="22" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="252">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1994,6 +1994,17 @@
   <si>
     <t>s</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>短期チェックテスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Shortchecktest</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -5822,8 +5833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674B55F7-4AFA-4E86-9D4E-AAB6178E3E93}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+    <sheetView topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10445,8 +10456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC438B78-AD42-46F1-958B-525166C37BB3}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10473,7 +10484,7 @@
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="52" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -10525,7 +10536,7 @@
       <c r="L2" s="44"/>
       <c r="M2" s="44"/>
       <c r="N2" s="56" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
